--- a/Vorlage Betriebsdokumentation.xlsx
+++ b/Vorlage Betriebsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA051E5-8389-4316-BF22-367F3E163C73}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A9BCF-0390-4CA8-88B0-FADFC97E74A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjektOrga" sheetId="19" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Monitoring</t>
   </si>
@@ -155,7 +155,13 @@
     <t>Rolle</t>
   </si>
   <si>
-    <t>Epic</t>
+    <t>Projektbudget</t>
+  </si>
+  <si>
+    <t>Diese Bugetübersicht wird aus der Projektmappe gelöst und als separate Datei geführt.</t>
+  </si>
+  <si>
+    <t>(Nur der Projektleiter des Kunden erhält Zugang zu dieser, nicht alle Projektmitarbeiter)</t>
   </si>
 </sst>
 </file>
@@ -279,8 +285,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -495,8 +501,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="363415" y="1159851"/>
-          <a:ext cx="2023119" cy="197461"/>
+          <a:off x="372940" y="1126514"/>
+          <a:ext cx="2023119" cy="187936"/>
           <a:chOff x="11746368" y="93785"/>
           <a:chExt cx="1925671" cy="169984"/>
         </a:xfrm>
@@ -644,8 +650,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="361948" y="1498129"/>
-          <a:ext cx="2013594" cy="202082"/>
+          <a:off x="371473" y="1455267"/>
+          <a:ext cx="2013594" cy="192557"/>
           <a:chOff x="11755434" y="106583"/>
           <a:chExt cx="1916605" cy="171903"/>
         </a:xfrm>
@@ -793,8 +799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="363049" y="1826968"/>
-          <a:ext cx="2023119" cy="197094"/>
+          <a:off x="372574" y="1765056"/>
+          <a:ext cx="2023119" cy="187569"/>
           <a:chOff x="11746368" y="93785"/>
           <a:chExt cx="1925671" cy="169984"/>
         </a:xfrm>
@@ -2256,8 +2262,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="319087" y="5038725"/>
-          <a:ext cx="1847850" cy="2433637"/>
+          <a:off x="328612" y="4814888"/>
+          <a:ext cx="1847850" cy="2309812"/>
           <a:chOff x="333375" y="4271963"/>
           <a:chExt cx="1847850" cy="2309812"/>
         </a:xfrm>
@@ -2485,8 +2491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2643187" y="4324350"/>
-          <a:ext cx="1643062" cy="900112"/>
+          <a:off x="2652712" y="4138613"/>
+          <a:ext cx="1643062" cy="852487"/>
           <a:chOff x="2705100" y="4200526"/>
           <a:chExt cx="1643062" cy="852487"/>
         </a:xfrm>
@@ -2637,8 +2643,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2762250" y="5743575"/>
-          <a:ext cx="619126" cy="285750"/>
+          <a:off x="2771775" y="5481638"/>
+          <a:ext cx="619126" cy="276225"/>
           <a:chOff x="2762250" y="5172075"/>
           <a:chExt cx="619126" cy="285750"/>
         </a:xfrm>
@@ -2760,8 +2766,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5829300" y="4419600"/>
-          <a:ext cx="1609725" cy="693727"/>
+          <a:off x="5838825" y="4224338"/>
+          <a:ext cx="1609725" cy="665152"/>
           <a:chOff x="16734692" y="2171423"/>
           <a:chExt cx="1609725" cy="693727"/>
         </a:xfrm>
@@ -3021,8 +3027,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5829300" y="5484116"/>
-          <a:ext cx="1609725" cy="580587"/>
+          <a:off x="5838825" y="5241229"/>
+          <a:ext cx="1609725" cy="552012"/>
           <a:chOff x="5829300" y="4912616"/>
           <a:chExt cx="1609725" cy="580587"/>
         </a:xfrm>
@@ -3269,8 +3275,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5838825" y="6363294"/>
-          <a:ext cx="1609725" cy="640302"/>
+          <a:off x="5848350" y="6072782"/>
+          <a:ext cx="1609725" cy="611727"/>
           <a:chOff x="5838825" y="5791794"/>
           <a:chExt cx="1609725" cy="640302"/>
         </a:xfrm>
@@ -3552,8 +3558,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5867400" y="8315324"/>
-          <a:ext cx="1628775" cy="620486"/>
+          <a:off x="5876925" y="7929562"/>
+          <a:ext cx="1628775" cy="591911"/>
           <a:chOff x="11091495" y="2315308"/>
           <a:chExt cx="1628775" cy="620486"/>
         </a:xfrm>
@@ -3824,8 +3830,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7896225" y="4391025"/>
-          <a:ext cx="2066925" cy="646339"/>
+          <a:off x="7905750" y="4195763"/>
+          <a:ext cx="2066925" cy="617764"/>
           <a:chOff x="4747846" y="2809875"/>
           <a:chExt cx="2066925" cy="646339"/>
         </a:xfrm>
@@ -4113,8 +4119,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7915275" y="6305550"/>
-          <a:ext cx="2066925" cy="616403"/>
+          <a:off x="7924800" y="6015038"/>
+          <a:ext cx="2066925" cy="587828"/>
           <a:chOff x="4747846" y="2819400"/>
           <a:chExt cx="2066925" cy="616403"/>
         </a:xfrm>
@@ -4402,8 +4408,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14258925" y="11172824"/>
-          <a:ext cx="1628775" cy="613683"/>
+          <a:off x="14268450" y="10644187"/>
+          <a:ext cx="1628775" cy="585108"/>
           <a:chOff x="11091495" y="2315308"/>
           <a:chExt cx="1628775" cy="613683"/>
         </a:xfrm>
@@ -4676,8 +4682,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12934950" y="5410199"/>
-          <a:ext cx="1628775" cy="627290"/>
+          <a:off x="12944475" y="5167312"/>
+          <a:ext cx="1628775" cy="598715"/>
           <a:chOff x="11091495" y="2315308"/>
           <a:chExt cx="1628775" cy="627290"/>
         </a:xfrm>
@@ -4963,8 +4969,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8467725" y="9877425"/>
-          <a:ext cx="1521225" cy="838200"/>
+          <a:off x="8477250" y="9415463"/>
+          <a:ext cx="1521225" cy="790575"/>
           <a:chOff x="7943850" y="8458200"/>
           <a:chExt cx="1521225" cy="838200"/>
         </a:xfrm>
@@ -5288,8 +5294,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8477250" y="11010900"/>
-          <a:ext cx="1800225" cy="685800"/>
+          <a:off x="8486775" y="10491788"/>
+          <a:ext cx="1800225" cy="647700"/>
           <a:chOff x="7953375" y="9591675"/>
           <a:chExt cx="1800225" cy="685800"/>
         </a:xfrm>
@@ -5578,8 +5584,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8439150" y="12049125"/>
-          <a:ext cx="3039362" cy="866775"/>
+          <a:off x="8448675" y="11472863"/>
+          <a:ext cx="3039362" cy="828675"/>
           <a:chOff x="7915275" y="10629900"/>
           <a:chExt cx="3039362" cy="866775"/>
         </a:xfrm>
@@ -5891,8 +5897,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7905750" y="5353050"/>
-          <a:ext cx="2066925" cy="636814"/>
+          <a:off x="7915275" y="5110163"/>
+          <a:ext cx="2066925" cy="608239"/>
           <a:chOff x="4747846" y="2800350"/>
           <a:chExt cx="2066925" cy="636814"/>
         </a:xfrm>
@@ -6197,8 +6203,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5838825" y="9886950"/>
-          <a:ext cx="1800225" cy="756282"/>
+          <a:off x="5848350" y="9424988"/>
+          <a:ext cx="1800225" cy="718182"/>
           <a:chOff x="5848350" y="9963150"/>
           <a:chExt cx="1800225" cy="756282"/>
         </a:xfrm>
@@ -7348,8 +7354,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5812972" y="10997293"/>
-          <a:ext cx="1435552" cy="714590"/>
+          <a:off x="5822497" y="10478181"/>
+          <a:ext cx="1435552" cy="676490"/>
           <a:chOff x="5851072" y="10485665"/>
           <a:chExt cx="1435552" cy="714590"/>
         </a:xfrm>
@@ -7611,8 +7617,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5848350" y="7296150"/>
-          <a:ext cx="1702671" cy="805751"/>
+          <a:off x="5857875" y="6958013"/>
+          <a:ext cx="1702671" cy="767651"/>
           <a:chOff x="5845629" y="6721929"/>
           <a:chExt cx="1702671" cy="805751"/>
         </a:xfrm>
@@ -8262,8 +8268,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5826159" y="12206968"/>
-          <a:ext cx="1726588" cy="632731"/>
+          <a:off x="5835684" y="11621181"/>
+          <a:ext cx="1726588" cy="604156"/>
           <a:chOff x="5826159" y="11635468"/>
           <a:chExt cx="1726588" cy="632731"/>
         </a:xfrm>
@@ -35611,62 +35617,62 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
@@ -35677,46 +35683,41 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -35725,6 +35726,11 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35740,18 +35746,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
     </row>
   </sheetData>
@@ -35764,22 +35770,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7A2A25-57D6-42FC-813F-54EC03E0F65D}">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
@@ -35794,30 +35800,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C430FD-CEC6-4CEC-A1A1-98C26DFF1634}">
   <dimension ref="B1:B6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -35835,18 +35846,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
@@ -35866,28 +35877,28 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="1"/>
+    <col min="3" max="3" width="4.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:5" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E7" s="3"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" s="4"/>
     </row>
   </sheetData>
@@ -35904,24 +35915,24 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
       <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -35929,13 +35940,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
       <c r="B4" s="2"/>
       <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R6" t="s">
         <v>20</v>
       </c>
@@ -35943,7 +35954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R7" t="s">
         <v>21</v>
       </c>
@@ -35951,7 +35962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R8" t="s">
         <v>22</v>
       </c>
@@ -35959,7 +35970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R9" t="s">
         <v>26</v>
       </c>
@@ -35967,7 +35978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
       <c r="R10" t="s">
         <v>28</v>
       </c>
@@ -35990,79 +36001,79 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" style="1"/>
-    <col min="8" max="8" width="43.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16" width="10.7109375" style="1"/>
-    <col min="17" max="19" width="5.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="10.7109375" style="1"/>
-    <col min="27" max="27" width="13.5703125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.73046875" style="1"/>
+    <col min="4" max="4" width="32.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.73046875" style="1"/>
+    <col min="8" max="8" width="43.86328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.73046875" style="1" customWidth="1"/>
+    <col min="11" max="16" width="10.73046875" style="1"/>
+    <col min="17" max="19" width="5.86328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.59765625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.59765625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.86328125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.265625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="10.73046875" style="1"/>
+    <col min="27" max="27" width="13.59765625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.73046875" style="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="37" width="10.7109375" style="1"/>
+    <col min="30" max="37" width="10.73046875" style="1"/>
     <col min="38" max="38" width="16" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="10.7109375" style="1"/>
+    <col min="39" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:33" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.65">
       <c r="B4" s="2"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="AG7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
       <c r="AG12" s="1" t="s">
         <v>14</v>
       </c>
@@ -36082,156 +36093,156 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
       <c r="B3" s="2"/>
     </row>
-    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.45">
       <c r="N31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.45">
       <c r="N38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:15" x14ac:dyDescent="0.45">
       <c r="O42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="T85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U86" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U87" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="U89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.45">
       <c r="G175" t="s">
         <v>4</v>
       </c>
@@ -36251,18 +36262,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36276,18 +36287,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>

--- a/Vorlage Betriebsdokumentation.xlsx
+++ b/Vorlage Betriebsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A9BCF-0390-4CA8-88B0-FADFC97E74A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7916C8-D444-4BC5-A84B-BBCDBDA87FE5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjektOrga" sheetId="19" r:id="rId1"/>
@@ -285,8 +285,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -501,8 +501,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="372940" y="1126514"/>
-          <a:ext cx="2023119" cy="187936"/>
+          <a:off x="363415" y="1159851"/>
+          <a:ext cx="2023119" cy="197461"/>
           <a:chOff x="11746368" y="93785"/>
           <a:chExt cx="1925671" cy="169984"/>
         </a:xfrm>
@@ -650,8 +650,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="371473" y="1455267"/>
-          <a:ext cx="2013594" cy="192557"/>
+          <a:off x="361948" y="1498129"/>
+          <a:ext cx="2013594" cy="202082"/>
           <a:chOff x="11755434" y="106583"/>
           <a:chExt cx="1916605" cy="171903"/>
         </a:xfrm>
@@ -799,8 +799,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="372574" y="1765056"/>
-          <a:ext cx="2023119" cy="187569"/>
+          <a:off x="363049" y="1826968"/>
+          <a:ext cx="2023119" cy="197094"/>
           <a:chOff x="11746368" y="93785"/>
           <a:chExt cx="1925671" cy="169984"/>
         </a:xfrm>
@@ -932,7 +932,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>341589</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -949,7 +949,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="358685" y="2504341"/>
-          <a:ext cx="1659304" cy="267434"/>
+          <a:ext cx="1659304" cy="648434"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -993,6 +993,23 @@
             </a:rPr>
             <a:t> Transfer Volume</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="de-DE" sz="800" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SAR Update = Store and Refreh Update der PDT (Caching manuelle VS in #table)</a:t>
+          </a:r>
           <a:endParaRPr lang="de-DE" sz="800">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -2262,8 +2279,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="328612" y="4814888"/>
-          <a:ext cx="1847850" cy="2309812"/>
+          <a:off x="319087" y="5038725"/>
+          <a:ext cx="1847850" cy="2433637"/>
           <a:chOff x="333375" y="4271963"/>
           <a:chExt cx="1847850" cy="2309812"/>
         </a:xfrm>
@@ -2491,8 +2508,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2652712" y="4138613"/>
-          <a:ext cx="1643062" cy="852487"/>
+          <a:off x="2643187" y="4324350"/>
+          <a:ext cx="1643062" cy="900112"/>
           <a:chOff x="2705100" y="4200526"/>
           <a:chExt cx="1643062" cy="852487"/>
         </a:xfrm>
@@ -2643,8 +2660,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2771775" y="5481638"/>
-          <a:ext cx="619126" cy="276225"/>
+          <a:off x="2762250" y="5743575"/>
+          <a:ext cx="619126" cy="285750"/>
           <a:chOff x="2762250" y="5172075"/>
           <a:chExt cx="619126" cy="285750"/>
         </a:xfrm>
@@ -2766,8 +2783,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5838825" y="4224338"/>
-          <a:ext cx="1609725" cy="665152"/>
+          <a:off x="5829300" y="4419600"/>
+          <a:ext cx="1609725" cy="693727"/>
           <a:chOff x="16734692" y="2171423"/>
           <a:chExt cx="1609725" cy="693727"/>
         </a:xfrm>
@@ -3027,8 +3044,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5838825" y="5241229"/>
-          <a:ext cx="1609725" cy="552012"/>
+          <a:off x="5829300" y="5484116"/>
+          <a:ext cx="1609725" cy="580587"/>
           <a:chOff x="5829300" y="4912616"/>
           <a:chExt cx="1609725" cy="580587"/>
         </a:xfrm>
@@ -3275,8 +3292,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5848350" y="6072782"/>
-          <a:ext cx="1609725" cy="611727"/>
+          <a:off x="5838825" y="6363294"/>
+          <a:ext cx="1609725" cy="640302"/>
           <a:chOff x="5838825" y="5791794"/>
           <a:chExt cx="1609725" cy="640302"/>
         </a:xfrm>
@@ -3558,8 +3575,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5876925" y="7929562"/>
-          <a:ext cx="1628775" cy="591911"/>
+          <a:off x="5867400" y="8315324"/>
+          <a:ext cx="1628775" cy="620486"/>
           <a:chOff x="11091495" y="2315308"/>
           <a:chExt cx="1628775" cy="620486"/>
         </a:xfrm>
@@ -3830,8 +3847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7905750" y="4195763"/>
-          <a:ext cx="2066925" cy="617764"/>
+          <a:off x="7896225" y="4391025"/>
+          <a:ext cx="2066925" cy="646339"/>
           <a:chOff x="4747846" y="2809875"/>
           <a:chExt cx="2066925" cy="646339"/>
         </a:xfrm>
@@ -4119,8 +4136,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7924800" y="6015038"/>
-          <a:ext cx="2066925" cy="587828"/>
+          <a:off x="7915275" y="6305550"/>
+          <a:ext cx="2066925" cy="616403"/>
           <a:chOff x="4747846" y="2819400"/>
           <a:chExt cx="2066925" cy="616403"/>
         </a:xfrm>
@@ -4408,8 +4425,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14268450" y="10644187"/>
-          <a:ext cx="1628775" cy="585108"/>
+          <a:off x="14258925" y="11172824"/>
+          <a:ext cx="1628775" cy="613683"/>
           <a:chOff x="11091495" y="2315308"/>
           <a:chExt cx="1628775" cy="613683"/>
         </a:xfrm>
@@ -4682,8 +4699,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12944475" y="5167312"/>
-          <a:ext cx="1628775" cy="598715"/>
+          <a:off x="12934950" y="5410199"/>
+          <a:ext cx="1628775" cy="627290"/>
           <a:chOff x="11091495" y="2315308"/>
           <a:chExt cx="1628775" cy="627290"/>
         </a:xfrm>
@@ -4969,8 +4986,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8477250" y="9415463"/>
-          <a:ext cx="1521225" cy="790575"/>
+          <a:off x="8467725" y="9877425"/>
+          <a:ext cx="1521225" cy="838200"/>
           <a:chOff x="7943850" y="8458200"/>
           <a:chExt cx="1521225" cy="838200"/>
         </a:xfrm>
@@ -5294,8 +5311,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8486775" y="10491788"/>
-          <a:ext cx="1800225" cy="647700"/>
+          <a:off x="8477250" y="11010900"/>
+          <a:ext cx="1800225" cy="685800"/>
           <a:chOff x="7953375" y="9591675"/>
           <a:chExt cx="1800225" cy="685800"/>
         </a:xfrm>
@@ -5584,8 +5601,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8448675" y="11472863"/>
-          <a:ext cx="3039362" cy="828675"/>
+          <a:off x="8439150" y="12049125"/>
+          <a:ext cx="3039362" cy="866775"/>
           <a:chOff x="7915275" y="10629900"/>
           <a:chExt cx="3039362" cy="866775"/>
         </a:xfrm>
@@ -5897,8 +5914,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7915275" y="5110163"/>
-          <a:ext cx="2066925" cy="608239"/>
+          <a:off x="7905750" y="5353050"/>
+          <a:ext cx="2066925" cy="636814"/>
           <a:chOff x="4747846" y="2800350"/>
           <a:chExt cx="2066925" cy="636814"/>
         </a:xfrm>
@@ -6203,8 +6220,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5848350" y="9424988"/>
-          <a:ext cx="1800225" cy="718182"/>
+          <a:off x="5838825" y="9886950"/>
+          <a:ext cx="1800225" cy="756282"/>
           <a:chOff x="5848350" y="9963150"/>
           <a:chExt cx="1800225" cy="756282"/>
         </a:xfrm>
@@ -7354,8 +7371,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5822497" y="10478181"/>
-          <a:ext cx="1435552" cy="676490"/>
+          <a:off x="5812972" y="10997293"/>
+          <a:ext cx="1435552" cy="714590"/>
           <a:chOff x="5851072" y="10485665"/>
           <a:chExt cx="1435552" cy="714590"/>
         </a:xfrm>
@@ -7617,8 +7634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5857875" y="6958013"/>
-          <a:ext cx="1702671" cy="767651"/>
+          <a:off x="5848350" y="7296150"/>
+          <a:ext cx="1702671" cy="805751"/>
           <a:chOff x="5845629" y="6721929"/>
           <a:chExt cx="1702671" cy="805751"/>
         </a:xfrm>
@@ -8268,8 +8285,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5835684" y="11621181"/>
-          <a:ext cx="1726588" cy="604156"/>
+          <a:off x="5826159" y="12206968"/>
+          <a:ext cx="1726588" cy="632731"/>
           <a:chOff x="5826159" y="11635468"/>
           <a:chExt cx="1726588" cy="632731"/>
         </a:xfrm>
@@ -35617,62 +35634,62 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:7" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="8" t="s">
         <v>38</v>
       </c>
@@ -35683,41 +35700,46 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" s="10"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="C13:D13"/>
@@ -35726,11 +35748,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35746,18 +35763,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
   </sheetData>
@@ -35770,22 +35787,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7A2A25-57D6-42FC-813F-54EC03E0F65D}">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
@@ -35800,33 +35817,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C430FD-CEC6-4CEC-A1A1-98C26DFF1634}">
   <dimension ref="B1:B6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>42</v>
       </c>
@@ -35846,18 +35863,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
@@ -35877,28 +35894,28 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3984375" style="1"/>
-    <col min="3" max="3" width="4.1328125" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:5" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:5" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E7" s="3"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
     </row>
   </sheetData>
@@ -35915,24 +35932,24 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:21" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
       <c r="Q2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:21" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:21" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -35940,13 +35957,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:21" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R6" t="s">
         <v>20</v>
       </c>
@@ -35954,7 +35971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R7" t="s">
         <v>21</v>
       </c>
@@ -35962,7 +35979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R8" t="s">
         <v>22</v>
       </c>
@@ -35970,7 +35987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R9" t="s">
         <v>26</v>
       </c>
@@ -35978,7 +35995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R10" t="s">
         <v>28</v>
       </c>
@@ -36001,79 +36018,79 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.73046875" style="1"/>
-    <col min="4" max="4" width="32.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.73046875" style="1"/>
-    <col min="8" max="8" width="43.86328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.73046875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.73046875" style="1" customWidth="1"/>
-    <col min="11" max="16" width="10.73046875" style="1"/>
-    <col min="17" max="19" width="5.86328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.59765625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.59765625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.86328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.265625" style="1" customWidth="1"/>
-    <col min="24" max="26" width="10.73046875" style="1"/>
-    <col min="27" max="27" width="13.59765625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.73046875" style="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="32.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="1"/>
+    <col min="8" max="8" width="43.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16" width="10.7109375" style="1"/>
+    <col min="17" max="19" width="5.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="10.7109375" style="1"/>
+    <col min="27" max="27" width="13.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="1"/>
     <col min="29" max="29" width="12" style="1" customWidth="1"/>
-    <col min="30" max="37" width="10.73046875" style="1"/>
+    <col min="30" max="37" width="10.7109375" style="1"/>
     <col min="38" max="38" width="16" style="1" customWidth="1"/>
-    <col min="39" max="16384" width="10.73046875" style="1"/>
+    <col min="39" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:33" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:33" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.65">
+    <row r="4" spans="2:33" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:33" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AG7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG12" s="1" t="s">
         <v>14</v>
       </c>
@@ -36093,156 +36110,156 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.65">
+    <row r="3" spans="2:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
-    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="14:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="14:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O41" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="14:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="14:15" x14ac:dyDescent="0.25">
       <c r="O42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T85" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U86" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U87" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U89" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="175" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="20:21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
         <v>4</v>
       </c>
@@ -36262,18 +36279,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36287,18 +36304,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="str">
         <f>lblAuftraggeber</f>
         <v>Musterfirma</v>
       </c>
     </row>
-    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="2:2" s="6" customFormat="1" ht="31.35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>

--- a/Vorlage Betriebsdokumentation.xlsx
+++ b/Vorlage Betriebsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7916C8-D444-4BC5-A84B-BBCDBDA87FE5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77FB3B5-E75D-4488-8D92-E42D5DC35DE3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjektOrga" sheetId="19" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Monitoring</t>
   </si>
@@ -162,6 +162,39 @@
   </si>
   <si>
     <t>(Nur der Projektleiter des Kunden erhält Zugang zu dieser, nicht alle Projektmitarbeiter)</t>
+  </si>
+  <si>
+    <t>Administratorenmappe</t>
+  </si>
+  <si>
+    <t>Steuerungsfunktionen (lösen Stored Procedures aus)</t>
+  </si>
+  <si>
+    <t>Process Log Ansicht</t>
+  </si>
+  <si>
+    <t>Fehlerreport</t>
+  </si>
+  <si>
+    <t>Usermappe</t>
+  </si>
+  <si>
+    <t>Inhaltsverzeichnis</t>
+  </si>
+  <si>
+    <t>Eventauswertung</t>
+  </si>
+  <si>
+    <t>Alle Reports nutzen Benutzerrechte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports kann basieren auf </t>
+  </si>
+  <si>
+    <t>direkter SQL Verbindung</t>
+  </si>
+  <si>
+    <t>Azure Webservice Verbindung per PowerQuery</t>
   </si>
 </sst>
 </file>
@@ -35787,7 +35820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7A2A25-57D6-42FC-813F-54EC03E0F65D}">
   <dimension ref="B1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -35926,10 +35959,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:U10"/>
+  <dimension ref="B1:U65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36001,6 +36034,71 @@
       </c>
       <c r="U10" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
